--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2661.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2661.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8557198244165705</v>
+        <v>1.676148056983948</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.725333333015442</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.707668304443359</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.041229963302612</v>
       </c>
       <c r="E1">
-        <v>0.8701787039560863</v>
+        <v>2.875803709030151</v>
       </c>
     </row>
   </sheetData>
